--- a/WorkBot/main/backend/orders/OrderFiles/A.L. George/A.L. George_TRIPHAMMER_20250221.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/A.L. George/A.L. George_TRIPHAMMER_20250221.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>33.00</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>66.00</t>
+          <t>88.00</t>
         </is>
       </c>
     </row>
